--- a/ChainSight 1st SIT/run_20250918_111143/module5/Module5Output_20250901.xlsx
+++ b/ChainSight 1st SIT/run_20250918_111143/module5/Module5Output_20250901.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang.s.37\OneDrive - Procter and Gamble\Documents\GitHub\chainsight\ChainSight 1st SIT\run_20250918_111143\module5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pgone-my.sharepoint.com/personal/zhang_s_37_pg_com/Documents/Documents/GitHub/chainsight/ChainSight 1st SIT/run_20250918_111143/module5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0D59E5-6319-473F-B4AF-4CFB53FFE258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{EA0D59E5-6319-473F-B4AF-4CFB53FFE258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C0DD59-6CEB-4019-9DE2-040D7B6EF87B}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="2730" windowWidth="25185" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="192" yWindow="816" windowWidth="13572" windowHeight="10332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeploymentPlan" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,23 @@
     <sheet name="StockOnHandLog" sheetId="3" r:id="rId3"/>
     <sheet name="Validation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DeploymentPlan!$A$1:$M$44</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -153,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,12 +185,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -204,12 +226,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,18 +536,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45901</v>
       </c>
@@ -605,7 +642,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45901</v>
       </c>
@@ -646,7 +683,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45901</v>
       </c>
@@ -687,7 +724,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45901</v>
       </c>
@@ -728,7 +765,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45901</v>
       </c>
@@ -769,7 +806,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45901</v>
       </c>
@@ -810,32 +847,32 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45901</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4">
         <v>137</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>137</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>137</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>45901</v>
       </c>
       <c r="J8" t="s">
@@ -851,7 +888,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45901</v>
       </c>
@@ -892,7 +929,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45901</v>
       </c>
@@ -933,7 +970,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45901</v>
       </c>
@@ -974,7 +1011,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45901</v>
       </c>
@@ -1015,7 +1052,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45901</v>
       </c>
@@ -1056,7 +1093,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45901</v>
       </c>
@@ -1097,7 +1134,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45901</v>
       </c>
@@ -1138,7 +1175,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45901</v>
       </c>
@@ -1179,7 +1216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45901</v>
       </c>
@@ -1220,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45901</v>
       </c>
@@ -1261,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45901</v>
       </c>
@@ -1302,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45901</v>
       </c>
@@ -1343,7 +1380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45901</v>
       </c>
@@ -1384,7 +1421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45901</v>
       </c>
@@ -1425,7 +1462,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45901</v>
       </c>
@@ -1466,7 +1503,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45901</v>
       </c>
@@ -1507,7 +1544,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45901</v>
       </c>
@@ -1548,7 +1585,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45901</v>
       </c>
@@ -1589,7 +1626,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45901</v>
       </c>
@@ -1630,7 +1667,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45901</v>
       </c>
@@ -1671,7 +1708,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45901</v>
       </c>
@@ -1712,7 +1749,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45901</v>
       </c>
@@ -1753,7 +1790,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -1794,7 +1831,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45901</v>
       </c>
@@ -1835,7 +1872,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45901</v>
       </c>
@@ -1876,7 +1913,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45901</v>
       </c>
@@ -1917,7 +1954,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45901</v>
       </c>
@@ -1958,7 +1995,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45901</v>
       </c>
@@ -1999,7 +2036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45901</v>
       </c>
@@ -2040,7 +2077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45901</v>
       </c>
@@ -2081,7 +2118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45901</v>
       </c>
@@ -2122,7 +2159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45901</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45901</v>
       </c>
@@ -2204,7 +2241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45901</v>
       </c>
@@ -2245,7 +2282,7 @@
         <v>9999136</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45901</v>
       </c>
@@ -2286,7 +2323,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45901</v>
       </c>
@@ -2327,11 +2364,21 @@
         <v>9999999</v>
       </c>
     </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f>1000-859</f>
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M44" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="80813644"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -2341,9 +2388,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45901</v>
       </c>
@@ -2389,7 +2436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45901</v>
       </c>
@@ -2412,7 +2459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45901</v>
       </c>
@@ -2435,7 +2482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45901</v>
       </c>
@@ -2458,7 +2505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45901</v>
       </c>
@@ -2481,7 +2528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45901</v>
       </c>
@@ -2504,7 +2551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45901</v>
       </c>
@@ -2527,7 +2574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45901</v>
       </c>
@@ -2550,7 +2597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45901</v>
       </c>
@@ -2573,7 +2620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45901</v>
       </c>
@@ -2596,7 +2643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45901</v>
       </c>
@@ -2619,7 +2666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45901</v>
       </c>
@@ -2642,7 +2689,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45901</v>
       </c>
@@ -2665,7 +2712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45901</v>
       </c>
@@ -2688,7 +2735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45901</v>
       </c>
@@ -2711,7 +2758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45901</v>
       </c>
@@ -2734,7 +2781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45901</v>
       </c>
@@ -2757,7 +2804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45901</v>
       </c>
@@ -2780,7 +2827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45901</v>
       </c>
@@ -2803,7 +2850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45901</v>
       </c>
@@ -2826,7 +2873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45901</v>
       </c>
@@ -2849,7 +2896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45901</v>
       </c>
@@ -2872,7 +2919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45901</v>
       </c>
@@ -2895,7 +2942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45901</v>
       </c>
@@ -2918,7 +2965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45901</v>
       </c>
@@ -2941,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45901</v>
       </c>
@@ -2964,7 +3011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45901</v>
       </c>
@@ -2987,7 +3034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45901</v>
       </c>
@@ -3010,7 +3057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45901</v>
       </c>
@@ -3033,7 +3080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45901</v>
       </c>
@@ -3056,7 +3103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45901</v>
       </c>
@@ -3079,7 +3126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45901</v>
       </c>
@@ -3102,7 +3149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45901</v>
       </c>
@@ -3125,7 +3172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45901</v>
       </c>
@@ -3148,7 +3195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45901</v>
       </c>
@@ -3171,7 +3218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45901</v>
       </c>
@@ -3194,7 +3241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45901</v>
       </c>
@@ -3217,7 +3264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45901</v>
       </c>
@@ -3240,7 +3287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45901</v>
       </c>
@@ -3263,7 +3310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45901</v>
       </c>
@@ -3297,9 +3344,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3331,7 +3378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -3363,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3427,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3538,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3523,7 +3570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3555,7 +3602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -3587,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3619,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3662,9 +3709,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -3672,7 +3719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3680,7 +3727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3688,7 +3735,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3696,7 +3743,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
